--- a/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input.xlsx
+++ b/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>parameters</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>maximum_floor_thickness</t>
+  </si>
+  <si>
+    <t>return wall level</t>
+  </si>
+  <si>
+    <t>fee-pwd</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -715,7 +721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -726,7 +732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -737,7 +743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -748,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -759,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -770,7 +776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -781,7 +787,7 @@
         <v>9.84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -791,12 +797,8 @@
       <c r="C24" s="1">
         <v>21.32</v>
       </c>
-      <c r="F24">
-        <f>3.28*1.4</f>
-        <v>4.5919999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -804,7 +806,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -814,12 +816,8 @@
       <c r="C26" s="1">
         <v>19.68</v>
       </c>
-      <c r="F26">
-        <f>F24/C26</f>
-        <v>0.23333333333333331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -827,7 +825,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -837,12 +835,8 @@
       <c r="C28" s="1">
         <v>3.28</v>
       </c>
-      <c r="F28">
-        <f>21.32/146</f>
-        <v>0.14602739726027397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -853,7 +847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -864,7 +858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -875,7 +869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -884,6 +878,17 @@
       </c>
       <c r="C32" s="1">
         <v>12.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1">
+        <v>11.35</v>
       </c>
     </row>
   </sheetData>

--- a/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input.xlsx
+++ b/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input.xlsx
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,6 +590,10 @@
       <c r="C5" s="1">
         <v>-4.92</v>
       </c>
+      <c r="D5">
+        <f>C4-C11</f>
+        <v>14.76</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -814,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>19.68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">

--- a/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input.xlsx
+++ b/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input.xlsx
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input.xlsx
+++ b/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input.xlsx
@@ -526,7 +526,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input.xlsx
+++ b/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -212,11 +212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1118,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,7 +1134,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
     </row>

--- a/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input.xlsx
+++ b/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
